--- a/JUEGOS PLACAS/P15NBJ PLACAS ACERO/P15NBJ40 PLACAS BLOQ. ACROMIOCLAVICULAR ACERO.xlsx
+++ b/JUEGOS PLACAS/P15NBJ PLACAS ACERO/P15NBJ40 PLACAS BLOQ. ACROMIOCLAVICULAR ACERO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JUEGOS PLACAS\P15NBJ PLACAS ACERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D6F2B6-46D4-486D-A279-EB96AB6D920F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12765" yWindow="225" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,33 +18,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -833,7 +823,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1193,30 +1183,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="81" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="83.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="1" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="48" t="s">
@@ -1227,7 +1217,7 @@
       </c>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="49"/>
@@ -1236,7 +1226,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="52" t="s">
@@ -1247,7 +1237,7 @@
       </c>
       <c r="E5" s="55"/>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="53"/>
@@ -1256,21 +1246,21 @@
       </c>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="22">
         <f ca="1">NOW()</f>
-        <v>45257.695147222221</v>
+        <v>45398.447505208336</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>7</v>
@@ -1280,7 +1270,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1288,7 +1278,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1294,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1314,7 +1304,7 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1322,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1341,7 +1331,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1358,7 +1348,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1367,7 +1357,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1374,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1393,7 +1383,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
@@ -1406,7 +1396,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1415,7 +1405,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1429,7 +1419,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -1439,7 +1429,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1441,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -1461,7 +1451,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36" t="s">
@@ -1473,7 +1463,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
@@ -1492,7 +1482,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>53</v>
       </c>
@@ -1505,7 +1495,7 @@
       </c>
       <c r="E26" s="41"/>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>34</v>
       </c>
@@ -1520,7 +1510,7 @@
       </c>
       <c r="E27" s="41"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>36</v>
       </c>
@@ -1535,7 +1525,7 @@
       </c>
       <c r="E28" s="41"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>39</v>
       </c>
@@ -1550,7 +1540,7 @@
       </c>
       <c r="E29" s="41"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>54</v>
       </c>
@@ -1565,7 +1555,7 @@
       </c>
       <c r="E30" s="41"/>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="39"/>
@@ -1575,7 +1565,7 @@
       </c>
       <c r="E31" s="41"/>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>43</v>
       </c>
@@ -1590,7 +1580,7 @@
       </c>
       <c r="E32" s="41"/>
     </row>
-    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +1595,7 @@
       </c>
       <c r="E33" s="41"/>
     </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>47</v>
       </c>
@@ -1620,7 +1610,7 @@
       </c>
       <c r="E34" s="41"/>
     </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>49</v>
       </c>
@@ -1635,7 +1625,7 @@
       </c>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="39"/>
@@ -1645,7 +1635,7 @@
       </c>
       <c r="E36" s="41"/>
     </row>
-    <row r="37" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
